--- a/natmiOut/OldD2/LR-pairs_lrc2p/Edn1-Ednrb.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Edn1-Ednrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Edn1</t>
   </si>
   <si>
     <t>Ednrb</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.5362054949509</v>
+        <v>15.3250705</v>
       </c>
       <c r="H2">
-        <v>14.5362054949509</v>
+        <v>30.650141</v>
       </c>
       <c r="I2">
-        <v>0.5575349071738881</v>
+        <v>0.5468844173754854</v>
       </c>
       <c r="J2">
-        <v>0.5575349071738881</v>
+        <v>0.4467829378564526</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.0171340680897</v>
+        <v>33.269746</v>
       </c>
       <c r="N2">
-        <v>33.0171340680897</v>
+        <v>66.539492</v>
       </c>
       <c r="O2">
-        <v>0.2650516913756047</v>
+        <v>0.2005681987123831</v>
       </c>
       <c r="P2">
-        <v>0.2650516913756047</v>
+        <v>0.1699655288935571</v>
       </c>
       <c r="Q2">
-        <v>479.9438456680961</v>
+        <v>509.8612029670929</v>
       </c>
       <c r="R2">
-        <v>479.9438456680961</v>
+        <v>2039.444811868372</v>
       </c>
       <c r="S2">
-        <v>0.1477755701473798</v>
+        <v>0.1096876224968722</v>
       </c>
       <c r="T2">
-        <v>0.1477755701473798</v>
+        <v>0.07593769833338923</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.5362054949509</v>
+        <v>15.3250705</v>
       </c>
       <c r="H3">
-        <v>14.5362054949509</v>
+        <v>30.650141</v>
       </c>
       <c r="I3">
-        <v>0.5575349071738881</v>
+        <v>0.5468844173754854</v>
       </c>
       <c r="J3">
-        <v>0.5575349071738881</v>
+        <v>0.4467829378564526</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>6.45442604681038</v>
+        <v>0.359402</v>
       </c>
       <c r="N3">
-        <v>6.45442604681038</v>
+        <v>1.078206</v>
       </c>
       <c r="O3">
-        <v>0.05181420461987511</v>
+        <v>0.002166671538569243</v>
       </c>
       <c r="P3">
-        <v>0.05181420461987511</v>
+        <v>0.002754121613164806</v>
       </c>
       <c r="Q3">
-        <v>93.82286336839927</v>
+        <v>5.507860987840999</v>
       </c>
       <c r="R3">
-        <v>93.82286336839927</v>
+        <v>33.047165927046</v>
       </c>
       <c r="S3">
-        <v>0.02888822776303092</v>
+        <v>0.001184918902014487</v>
       </c>
       <c r="T3">
-        <v>0.02888822776303092</v>
+        <v>0.001230494545543724</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.5362054949509</v>
+        <v>15.3250705</v>
       </c>
       <c r="H4">
-        <v>14.5362054949509</v>
+        <v>30.650141</v>
       </c>
       <c r="I4">
-        <v>0.5575349071738881</v>
+        <v>0.5468844173754854</v>
       </c>
       <c r="J4">
-        <v>0.5575349071738881</v>
+        <v>0.4467829378564526</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.39258773854538</v>
+        <v>8.476260000000002</v>
       </c>
       <c r="N4">
-        <v>4.39258773854538</v>
+        <v>25.42878</v>
       </c>
       <c r="O4">
-        <v>0.0352623824713614</v>
+        <v>0.05109952447541453</v>
       </c>
       <c r="P4">
-        <v>0.0352623824713614</v>
+        <v>0.06495414845995381</v>
       </c>
       <c r="Q4">
-        <v>63.85155802209731</v>
+        <v>129.89928207633</v>
       </c>
       <c r="R4">
-        <v>63.85155802209731</v>
+        <v>779.3956924579801</v>
       </c>
       <c r="S4">
-        <v>0.01966000913790061</v>
+        <v>0.02794553367090144</v>
       </c>
       <c r="T4">
-        <v>0.01966000913790061</v>
+        <v>0.02902040527490234</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.5362054949509</v>
+        <v>15.3250705</v>
       </c>
       <c r="H5">
-        <v>14.5362054949509</v>
+        <v>30.650141</v>
       </c>
       <c r="I5">
-        <v>0.5575349071738881</v>
+        <v>0.5468844173754854</v>
       </c>
       <c r="J5">
-        <v>0.5575349071738881</v>
+        <v>0.4467829378564526</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.6230416875936</v>
+        <v>4.704215666666666</v>
       </c>
       <c r="N5">
-        <v>33.6230416875936</v>
+        <v>14.112647</v>
       </c>
       <c r="O5">
-        <v>0.2699157367841397</v>
+        <v>0.02835958118279309</v>
       </c>
       <c r="P5">
-        <v>0.2699157367841397</v>
+        <v>0.03604871993076041</v>
       </c>
       <c r="Q5">
-        <v>488.7514433361613</v>
+        <v>72.09243673887116</v>
       </c>
       <c r="R5">
-        <v>488.7514433361613</v>
+        <v>432.5546204332269</v>
       </c>
       <c r="S5">
-        <v>0.1504874452527169</v>
+        <v>0.01550941303216458</v>
       </c>
       <c r="T5">
-        <v>0.1504874452527169</v>
+        <v>0.01610595299662959</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.5362054949509</v>
+        <v>15.3250705</v>
       </c>
       <c r="H6">
-        <v>14.5362054949509</v>
+        <v>30.650141</v>
       </c>
       <c r="I6">
-        <v>0.5575349071738881</v>
+        <v>0.5468844173754854</v>
       </c>
       <c r="J6">
-        <v>0.5575349071738881</v>
+        <v>0.4467829378564526</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>47.0814706200505</v>
+        <v>46.193335</v>
       </c>
       <c r="N6">
-        <v>47.0814706200505</v>
+        <v>138.580005</v>
       </c>
       <c r="O6">
-        <v>0.377955984749019</v>
+        <v>0.2784786512487256</v>
       </c>
       <c r="P6">
-        <v>0.377955984749019</v>
+        <v>0.3539826219878083</v>
       </c>
       <c r="Q6">
-        <v>684.3859319375475</v>
+        <v>707.9161155051174</v>
       </c>
       <c r="R6">
-        <v>684.3859319375475</v>
+        <v>4247.496693030705</v>
       </c>
       <c r="S6">
-        <v>0.2107236548728598</v>
+        <v>0.1522956349396703</v>
       </c>
       <c r="T6">
-        <v>0.2107236548728598</v>
+        <v>0.1581533958018431</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.519845018447024</v>
+        <v>15.3250705</v>
       </c>
       <c r="H7">
-        <v>0.519845018447024</v>
+        <v>30.650141</v>
       </c>
       <c r="I7">
-        <v>0.01993861081596168</v>
+        <v>0.5468844173754854</v>
       </c>
       <c r="J7">
-        <v>0.01993861081596168</v>
+        <v>0.4467829378564526</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.0171340680897</v>
+        <v>72.8745145</v>
       </c>
       <c r="N7">
-        <v>33.0171340680897</v>
+        <v>145.749029</v>
       </c>
       <c r="O7">
-        <v>0.2650516913756047</v>
+        <v>0.4393273728421144</v>
       </c>
       <c r="P7">
-        <v>0.2650516913756047</v>
+        <v>0.3722948591147555</v>
       </c>
       <c r="Q7">
-        <v>17.16379266869396</v>
+        <v>1116.807072365772</v>
       </c>
       <c r="R7">
-        <v>17.16379266869396</v>
+        <v>4467.228289463089</v>
       </c>
       <c r="S7">
-        <v>0.005284762520450571</v>
+        <v>0.2402612943338624</v>
       </c>
       <c r="T7">
-        <v>0.005284762520450571</v>
+        <v>0.1663349909041446</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.519845018447024</v>
+        <v>0.644686</v>
       </c>
       <c r="H8">
-        <v>0.519845018447024</v>
+        <v>1.934058</v>
       </c>
       <c r="I8">
-        <v>0.01993861081596168</v>
+        <v>0.02300601015180532</v>
       </c>
       <c r="J8">
-        <v>0.01993861081596168</v>
+        <v>0.02819250049207848</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.45442604681038</v>
+        <v>33.269746</v>
       </c>
       <c r="N8">
-        <v>6.45442604681038</v>
+        <v>66.539492</v>
       </c>
       <c r="O8">
-        <v>0.05181420461987511</v>
+        <v>0.2005681987123831</v>
       </c>
       <c r="P8">
-        <v>0.05181420461987511</v>
+        <v>0.1699655288935571</v>
       </c>
       <c r="Q8">
-        <v>3.355301227369095</v>
+        <v>21.448539469756</v>
       </c>
       <c r="R8">
-        <v>3.355301227369095</v>
+        <v>128.691236818536</v>
       </c>
       <c r="S8">
-        <v>0.001033103260654294</v>
+        <v>0.004614274015706392</v>
       </c>
       <c r="T8">
-        <v>0.001033103260654294</v>
+        <v>0.00479175325696799</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.519845018447024</v>
+        <v>0.644686</v>
       </c>
       <c r="H9">
-        <v>0.519845018447024</v>
+        <v>1.934058</v>
       </c>
       <c r="I9">
-        <v>0.01993861081596168</v>
+        <v>0.02300601015180532</v>
       </c>
       <c r="J9">
-        <v>0.01993861081596168</v>
+        <v>0.02819250049207848</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>4.39258773854538</v>
+        <v>0.359402</v>
       </c>
       <c r="N9">
-        <v>4.39258773854538</v>
+        <v>1.078206</v>
       </c>
       <c r="O9">
-        <v>0.0352623824713614</v>
+        <v>0.002166671538569243</v>
       </c>
       <c r="P9">
-        <v>0.0352623824713614</v>
+        <v>0.002754121613164806</v>
       </c>
       <c r="Q9">
-        <v>2.283464853974295</v>
+        <v>0.231701437772</v>
       </c>
       <c r="R9">
-        <v>2.283464853974295</v>
+        <v>2.085312939948</v>
       </c>
       <c r="S9">
-        <v>0.0007030829205400639</v>
+        <v>4.984646741195165E-05</v>
       </c>
       <c r="T9">
-        <v>0.0007030829205400639</v>
+        <v>7.764557493439277E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.519845018447024</v>
+        <v>0.644686</v>
       </c>
       <c r="H10">
-        <v>0.519845018447024</v>
+        <v>1.934058</v>
       </c>
       <c r="I10">
-        <v>0.01993861081596168</v>
+        <v>0.02300601015180532</v>
       </c>
       <c r="J10">
-        <v>0.01993861081596168</v>
+        <v>0.02819250049207848</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.6230416875936</v>
+        <v>8.476260000000002</v>
       </c>
       <c r="N10">
-        <v>33.6230416875936</v>
+        <v>25.42878</v>
       </c>
       <c r="O10">
-        <v>0.2699157367841397</v>
+        <v>0.05109952447541453</v>
       </c>
       <c r="P10">
-        <v>0.2699157367841397</v>
+        <v>0.06495414845995381</v>
       </c>
       <c r="Q10">
-        <v>17.47877072633215</v>
+        <v>5.464526154360001</v>
       </c>
       <c r="R10">
-        <v>17.47877072633215</v>
+        <v>49.18073538924</v>
       </c>
       <c r="S10">
-        <v>0.005381744828842514</v>
+        <v>0.001175596178833811</v>
       </c>
       <c r="T10">
-        <v>0.005381744828842514</v>
+        <v>0.001831219862419787</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.519845018447024</v>
+        <v>0.644686</v>
       </c>
       <c r="H11">
-        <v>0.519845018447024</v>
+        <v>1.934058</v>
       </c>
       <c r="I11">
-        <v>0.01993861081596168</v>
+        <v>0.02300601015180532</v>
       </c>
       <c r="J11">
-        <v>0.01993861081596168</v>
+        <v>0.02819250049207848</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>47.0814706200505</v>
+        <v>4.704215666666666</v>
       </c>
       <c r="N11">
-        <v>47.0814706200505</v>
+        <v>14.112647</v>
       </c>
       <c r="O11">
-        <v>0.377955984749019</v>
+        <v>0.02835958118279309</v>
       </c>
       <c r="P11">
-        <v>0.377955984749019</v>
+        <v>0.03604871993076041</v>
       </c>
       <c r="Q11">
-        <v>24.47506796299317</v>
+        <v>3.032741981280666</v>
       </c>
       <c r="R11">
-        <v>24.47506796299317</v>
+        <v>27.29467783152599</v>
       </c>
       <c r="S11">
-        <v>0.007535917285474238</v>
+        <v>0.0006524408125922849</v>
       </c>
       <c r="T11">
-        <v>0.007535917285474238</v>
+        <v>0.001016303554386762</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.0162282047797</v>
+        <v>0.644686</v>
       </c>
       <c r="H12">
-        <v>11.0162282047797</v>
+        <v>1.934058</v>
       </c>
       <c r="I12">
-        <v>0.4225264820101502</v>
+        <v>0.02300601015180532</v>
       </c>
       <c r="J12">
-        <v>0.4225264820101502</v>
+        <v>0.02819250049207848</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.0171340680897</v>
+        <v>46.193335</v>
       </c>
       <c r="N12">
-        <v>33.0171340680897</v>
+        <v>138.580005</v>
       </c>
       <c r="O12">
-        <v>0.2650516913756047</v>
+        <v>0.2784786512487256</v>
       </c>
       <c r="P12">
-        <v>0.2650516913756047</v>
+        <v>0.3539826219878083</v>
       </c>
       <c r="Q12">
-        <v>363.7242835618825</v>
+        <v>29.78019636781</v>
       </c>
       <c r="R12">
-        <v>363.7242835618825</v>
+        <v>268.02176731029</v>
       </c>
       <c r="S12">
-        <v>0.1119913587077743</v>
+        <v>0.006406682677689233</v>
       </c>
       <c r="T12">
-        <v>0.1119913587077743</v>
+        <v>0.009979655244578519</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.0162282047797</v>
+        <v>0.644686</v>
       </c>
       <c r="H13">
-        <v>11.0162282047797</v>
+        <v>1.934058</v>
       </c>
       <c r="I13">
-        <v>0.4225264820101502</v>
+        <v>0.02300601015180532</v>
       </c>
       <c r="J13">
-        <v>0.4225264820101502</v>
+        <v>0.02819250049207848</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.45442604681038</v>
+        <v>72.8745145</v>
       </c>
       <c r="N13">
-        <v>6.45442604681038</v>
+        <v>145.749029</v>
       </c>
       <c r="O13">
-        <v>0.05181420461987511</v>
+        <v>0.4393273728421144</v>
       </c>
       <c r="P13">
-        <v>0.05181420461987511</v>
+        <v>0.3722948591147555</v>
       </c>
       <c r="Q13">
-        <v>71.10343026253726</v>
+        <v>46.981179254947</v>
       </c>
       <c r="R13">
-        <v>71.10343026253726</v>
+        <v>281.887075529682</v>
       </c>
       <c r="S13">
-        <v>0.0218928735961899</v>
+        <v>0.01010716999957165</v>
       </c>
       <c r="T13">
-        <v>0.0218928735961899</v>
+        <v>0.01049592299879104</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>11.0162282047797</v>
+        <v>0.05663066666666666</v>
       </c>
       <c r="H14">
-        <v>11.0162282047797</v>
+        <v>0.169892</v>
       </c>
       <c r="I14">
-        <v>0.4225264820101502</v>
+        <v>0.002020899619716942</v>
       </c>
       <c r="J14">
-        <v>0.4225264820101502</v>
+        <v>0.002476492583779906</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.39258773854538</v>
+        <v>33.269746</v>
       </c>
       <c r="N14">
-        <v>4.39258773854538</v>
+        <v>66.539492</v>
       </c>
       <c r="O14">
-        <v>0.0352623824713614</v>
+        <v>0.2005681987123831</v>
       </c>
       <c r="P14">
-        <v>0.0352623824713614</v>
+        <v>0.1699655288935571</v>
       </c>
       <c r="Q14">
-        <v>48.3897489373331</v>
+        <v>1.884087895810666</v>
       </c>
       <c r="R14">
-        <v>48.3897489373331</v>
+        <v>11.304527374864</v>
       </c>
       <c r="S14">
-        <v>0.01489929041292072</v>
+        <v>0.0004053281965051671</v>
       </c>
       <c r="T14">
-        <v>0.01489929041292072</v>
+        <v>0.0004209183718031237</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>11.0162282047797</v>
+        <v>0.05663066666666666</v>
       </c>
       <c r="H15">
-        <v>11.0162282047797</v>
+        <v>0.169892</v>
       </c>
       <c r="I15">
-        <v>0.4225264820101502</v>
+        <v>0.002020899619716942</v>
       </c>
       <c r="J15">
-        <v>0.4225264820101502</v>
+        <v>0.002476492583779906</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>33.6230416875936</v>
+        <v>0.359402</v>
       </c>
       <c r="N15">
-        <v>33.6230416875936</v>
+        <v>1.078206</v>
       </c>
       <c r="O15">
-        <v>0.2699157367841397</v>
+        <v>0.002166671538569243</v>
       </c>
       <c r="P15">
-        <v>0.2699157367841397</v>
+        <v>0.002754121613164806</v>
       </c>
       <c r="Q15">
-        <v>370.3991001693523</v>
+        <v>0.02035317486133333</v>
       </c>
       <c r="R15">
-        <v>370.3991001693523</v>
+        <v>0.183178573752</v>
       </c>
       <c r="S15">
-        <v>0.1140465467025802</v>
+        <v>4.378625688346104E-06</v>
       </c>
       <c r="T15">
-        <v>0.1140465467025802</v>
+        <v>6.820561749830593E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,1363 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.05663066666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.169892</v>
+      </c>
+      <c r="I16">
+        <v>0.002020899619716942</v>
+      </c>
+      <c r="J16">
+        <v>0.002476492583779906</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.476260000000002</v>
+      </c>
+      <c r="N16">
+        <v>25.42878</v>
+      </c>
+      <c r="O16">
+        <v>0.05109952447541453</v>
+      </c>
+      <c r="P16">
+        <v>0.06495414845995381</v>
+      </c>
+      <c r="Q16">
+        <v>0.4800162546400001</v>
+      </c>
+      <c r="R16">
+        <v>4.32014629176</v>
+      </c>
+      <c r="S16">
+        <v>0.0001032670095800818</v>
+      </c>
+      <c r="T16">
+        <v>0.0001608584669468146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05663066666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.169892</v>
+      </c>
+      <c r="I17">
+        <v>0.002020899619716942</v>
+      </c>
+      <c r="J17">
+        <v>0.002476492583779906</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.704215666666666</v>
+      </c>
+      <c r="N17">
+        <v>14.112647</v>
+      </c>
+      <c r="O17">
+        <v>0.02835958118279309</v>
+      </c>
+      <c r="P17">
+        <v>0.03604871993076041</v>
+      </c>
+      <c r="Q17">
+        <v>0.266402869347111</v>
+      </c>
+      <c r="R17">
+        <v>2.397625824124</v>
+      </c>
+      <c r="S17">
+        <v>5.73118668276383E-05</v>
+      </c>
+      <c r="T17">
+        <v>8.927438756328705E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>11.0162282047797</v>
-      </c>
-      <c r="H16">
-        <v>11.0162282047797</v>
-      </c>
-      <c r="I16">
-        <v>0.4225264820101502</v>
-      </c>
-      <c r="J16">
-        <v>0.4225264820101502</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>47.0814706200505</v>
-      </c>
-      <c r="N16">
-        <v>47.0814706200505</v>
-      </c>
-      <c r="O16">
-        <v>0.377955984749019</v>
-      </c>
-      <c r="P16">
-        <v>0.377955984749019</v>
-      </c>
-      <c r="Q16">
-        <v>518.6602245671072</v>
-      </c>
-      <c r="R16">
-        <v>518.6602245671072</v>
-      </c>
-      <c r="S16">
-        <v>0.159696412590685</v>
-      </c>
-      <c r="T16">
-        <v>0.159696412590685</v>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.05663066666666666</v>
+      </c>
+      <c r="H18">
+        <v>0.169892</v>
+      </c>
+      <c r="I18">
+        <v>0.002020899619716942</v>
+      </c>
+      <c r="J18">
+        <v>0.002476492583779906</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>46.193335</v>
+      </c>
+      <c r="N18">
+        <v>138.580005</v>
+      </c>
+      <c r="O18">
+        <v>0.2784786512487256</v>
+      </c>
+      <c r="P18">
+        <v>0.3539826219878083</v>
+      </c>
+      <c r="Q18">
+        <v>2.615959356606666</v>
+      </c>
+      <c r="R18">
+        <v>23.54363420946</v>
+      </c>
+      <c r="S18">
+        <v>0.0005627774004078363</v>
+      </c>
+      <c r="T18">
+        <v>0.0008766353381397733</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.05663066666666666</v>
+      </c>
+      <c r="H19">
+        <v>0.169892</v>
+      </c>
+      <c r="I19">
+        <v>0.002020899619716942</v>
+      </c>
+      <c r="J19">
+        <v>0.002476492583779906</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>72.8745145</v>
+      </c>
+      <c r="N19">
+        <v>145.749029</v>
+      </c>
+      <c r="O19">
+        <v>0.4393273728421144</v>
+      </c>
+      <c r="P19">
+        <v>0.3722948591147555</v>
+      </c>
+      <c r="Q19">
+        <v>4.126932339144666</v>
+      </c>
+      <c r="R19">
+        <v>24.761594034868</v>
+      </c>
+      <c r="S19">
+        <v>0.0008878365207078721</v>
+      </c>
+      <c r="T19">
+        <v>0.0009219854575770771</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.2795713333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.838714</v>
+      </c>
+      <c r="I20">
+        <v>0.009976672260325826</v>
+      </c>
+      <c r="J20">
+        <v>0.01222581993803346</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>33.269746</v>
+      </c>
+      <c r="N20">
+        <v>66.539492</v>
+      </c>
+      <c r="O20">
+        <v>0.2005681987123831</v>
+      </c>
+      <c r="P20">
+        <v>0.1699655288935571</v>
+      </c>
+      <c r="Q20">
+        <v>9.301267248881333</v>
+      </c>
+      <c r="R20">
+        <v>55.80760349328799</v>
+      </c>
+      <c r="S20">
+        <v>0.002001003184397351</v>
+      </c>
+      <c r="T20">
+        <v>0.002077967951925253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.2795713333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.838714</v>
+      </c>
+      <c r="I21">
+        <v>0.009976672260325826</v>
+      </c>
+      <c r="J21">
+        <v>0.01222581993803346</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.359402</v>
+      </c>
+      <c r="N21">
+        <v>1.078206</v>
+      </c>
+      <c r="O21">
+        <v>0.002166671538569243</v>
+      </c>
+      <c r="P21">
+        <v>0.002754121613164806</v>
+      </c>
+      <c r="Q21">
+        <v>0.1004784963426667</v>
+      </c>
+      <c r="R21">
+        <v>0.904306467084</v>
+      </c>
+      <c r="S21">
+        <v>2.161617183608124E-05</v>
+      </c>
+      <c r="T21">
+        <v>3.367139492999915E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.2795713333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.838714</v>
+      </c>
+      <c r="I22">
+        <v>0.009976672260325826</v>
+      </c>
+      <c r="J22">
+        <v>0.01222581993803346</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>8.476260000000002</v>
+      </c>
+      <c r="N22">
+        <v>25.42878</v>
+      </c>
+      <c r="O22">
+        <v>0.05109952447541453</v>
+      </c>
+      <c r="P22">
+        <v>0.06495414845995381</v>
+      </c>
+      <c r="Q22">
+        <v>2.369719309880001</v>
+      </c>
+      <c r="R22">
+        <v>21.32747378892</v>
+      </c>
+      <c r="S22">
+        <v>0.0005098032083497088</v>
+      </c>
+      <c r="T22">
+        <v>0.0007941177232996886</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.2795713333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.838714</v>
+      </c>
+      <c r="I23">
+        <v>0.009976672260325826</v>
+      </c>
+      <c r="J23">
+        <v>0.01222581993803346</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.704215666666666</v>
+      </c>
+      <c r="N23">
+        <v>14.112647</v>
+      </c>
+      <c r="O23">
+        <v>0.02835958118279309</v>
+      </c>
+      <c r="P23">
+        <v>0.03604871993076041</v>
+      </c>
+      <c r="Q23">
+        <v>1.315163846217555</v>
+      </c>
+      <c r="R23">
+        <v>11.836474615958</v>
+      </c>
+      <c r="S23">
+        <v>0.0002829342469008301</v>
+      </c>
+      <c r="T23">
+        <v>0.0004407251588700747</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.2795713333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.838714</v>
+      </c>
+      <c r="I24">
+        <v>0.009976672260325826</v>
+      </c>
+      <c r="J24">
+        <v>0.01222581993803346</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>46.193335</v>
+      </c>
+      <c r="N24">
+        <v>138.580005</v>
+      </c>
+      <c r="O24">
+        <v>0.2784786512487256</v>
+      </c>
+      <c r="P24">
+        <v>0.3539826219878083</v>
+      </c>
+      <c r="Q24">
+        <v>12.91433225706333</v>
+      </c>
+      <c r="R24">
+        <v>116.22899031357</v>
+      </c>
+      <c r="S24">
+        <v>0.00277829023500611</v>
+      </c>
+      <c r="T24">
+        <v>0.004327727797615908</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.2795713333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.838714</v>
+      </c>
+      <c r="I25">
+        <v>0.009976672260325826</v>
+      </c>
+      <c r="J25">
+        <v>0.01222581993803346</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>72.8745145</v>
+      </c>
+      <c r="N25">
+        <v>145.749029</v>
+      </c>
+      <c r="O25">
+        <v>0.4393273728421144</v>
+      </c>
+      <c r="P25">
+        <v>0.3722948591147555</v>
+      </c>
+      <c r="Q25">
+        <v>20.37362518478433</v>
+      </c>
+      <c r="R25">
+        <v>122.241751108706</v>
+      </c>
+      <c r="S25">
+        <v>0.004383025213835745</v>
+      </c>
+      <c r="T25">
+        <v>0.004551609911392536</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>11.575966</v>
+      </c>
+      <c r="H26">
+        <v>34.727898</v>
+      </c>
+      <c r="I26">
+        <v>0.4130953538822825</v>
+      </c>
+      <c r="J26">
+        <v>0.5062238471927167</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>33.269746</v>
+      </c>
+      <c r="N26">
+        <v>66.539492</v>
+      </c>
+      <c r="O26">
+        <v>0.2005681987123831</v>
+      </c>
+      <c r="P26">
+        <v>0.1699655288935571</v>
+      </c>
+      <c r="Q26">
+        <v>385.129448524636</v>
+      </c>
+      <c r="R26">
+        <v>2310.776691147816</v>
+      </c>
+      <c r="S26">
+        <v>0.08285379102462385</v>
+      </c>
+      <c r="T26">
+        <v>0.08604060392664135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>11.575966</v>
+      </c>
+      <c r="H27">
+        <v>34.727898</v>
+      </c>
+      <c r="I27">
+        <v>0.4130953538822825</v>
+      </c>
+      <c r="J27">
+        <v>0.5062238471927167</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.359402</v>
+      </c>
+      <c r="N27">
+        <v>1.078206</v>
+      </c>
+      <c r="O27">
+        <v>0.002166671538569243</v>
+      </c>
+      <c r="P27">
+        <v>0.002754121613164806</v>
+      </c>
+      <c r="Q27">
+        <v>4.160425332332</v>
+      </c>
+      <c r="R27">
+        <v>37.443827990988</v>
+      </c>
+      <c r="S27">
+        <v>0.000895041945971931</v>
+      </c>
+      <c r="T27">
+        <v>0.001394202038652899</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>11.575966</v>
+      </c>
+      <c r="H28">
+        <v>34.727898</v>
+      </c>
+      <c r="I28">
+        <v>0.4130953538822825</v>
+      </c>
+      <c r="J28">
+        <v>0.5062238471927167</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>8.476260000000002</v>
+      </c>
+      <c r="N28">
+        <v>25.42878</v>
+      </c>
+      <c r="O28">
+        <v>0.05109952447541453</v>
+      </c>
+      <c r="P28">
+        <v>0.06495414845995381</v>
+      </c>
+      <c r="Q28">
+        <v>98.12089756716001</v>
+      </c>
+      <c r="R28">
+        <v>883.08807810444</v>
+      </c>
+      <c r="S28">
+        <v>0.02110897614638772</v>
+      </c>
+      <c r="T28">
+        <v>0.0328813389245247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>11.575966</v>
+      </c>
+      <c r="H29">
+        <v>34.727898</v>
+      </c>
+      <c r="I29">
+        <v>0.4130953538822825</v>
+      </c>
+      <c r="J29">
+        <v>0.5062238471927167</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>4.704215666666666</v>
+      </c>
+      <c r="N29">
+        <v>14.112647</v>
+      </c>
+      <c r="O29">
+        <v>0.02835958118279309</v>
+      </c>
+      <c r="P29">
+        <v>0.03604871993076041</v>
+      </c>
+      <c r="Q29">
+        <v>54.45584061400066</v>
+      </c>
+      <c r="R29">
+        <v>490.1025655260059</v>
+      </c>
+      <c r="S29">
+        <v>0.01171521122465923</v>
+      </c>
+      <c r="T29">
+        <v>0.0182487216897223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>11.575966</v>
+      </c>
+      <c r="H30">
+        <v>34.727898</v>
+      </c>
+      <c r="I30">
+        <v>0.4130953538822825</v>
+      </c>
+      <c r="J30">
+        <v>0.5062238471927167</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>46.193335</v>
+      </c>
+      <c r="N30">
+        <v>138.580005</v>
+      </c>
+      <c r="O30">
+        <v>0.2784786512487256</v>
+      </c>
+      <c r="P30">
+        <v>0.3539826219878083</v>
+      </c>
+      <c r="Q30">
+        <v>534.73247538661</v>
+      </c>
+      <c r="R30">
+        <v>4812.592278479489</v>
+      </c>
+      <c r="S30">
+        <v>0.115038236986253</v>
+      </c>
+      <c r="T30">
+        <v>0.1791944447420335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>11.575966</v>
+      </c>
+      <c r="H31">
+        <v>34.727898</v>
+      </c>
+      <c r="I31">
+        <v>0.4130953538822825</v>
+      </c>
+      <c r="J31">
+        <v>0.5062238471927167</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>72.8745145</v>
+      </c>
+      <c r="N31">
+        <v>145.749029</v>
+      </c>
+      <c r="O31">
+        <v>0.4393273728421144</v>
+      </c>
+      <c r="P31">
+        <v>0.3722948591147555</v>
+      </c>
+      <c r="Q31">
+        <v>843.592902118507</v>
+      </c>
+      <c r="R31">
+        <v>5061.557412711041</v>
+      </c>
+      <c r="S31">
+        <v>0.1814840965543867</v>
+      </c>
+      <c r="T31">
+        <v>0.188464535871142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>0.140579</v>
+      </c>
+      <c r="H32">
+        <v>0.281158</v>
+      </c>
+      <c r="I32">
+        <v>0.005016646710384032</v>
+      </c>
+      <c r="J32">
+        <v>0.004098401936938708</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>33.269746</v>
+      </c>
+      <c r="N32">
+        <v>66.539492</v>
+      </c>
+      <c r="O32">
+        <v>0.2005681987123831</v>
+      </c>
+      <c r="P32">
+        <v>0.1699655288935571</v>
+      </c>
+      <c r="Q32">
+        <v>4.677027622934</v>
+      </c>
+      <c r="R32">
+        <v>18.708110491736</v>
+      </c>
+      <c r="S32">
+        <v>0.001006179794278128</v>
+      </c>
+      <c r="T32">
+        <v>0.0006965870528301665</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <v>0.140579</v>
+      </c>
+      <c r="H33">
+        <v>0.281158</v>
+      </c>
+      <c r="I33">
+        <v>0.005016646710384032</v>
+      </c>
+      <c r="J33">
+        <v>0.004098401936938708</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.359402</v>
+      </c>
+      <c r="N33">
+        <v>1.078206</v>
+      </c>
+      <c r="O33">
+        <v>0.002166671538569243</v>
+      </c>
+      <c r="P33">
+        <v>0.002754121613164806</v>
+      </c>
+      <c r="Q33">
+        <v>0.050524373758</v>
+      </c>
+      <c r="R33">
+        <v>0.303146242548</v>
+      </c>
+      <c r="S33">
+        <v>1.08694256464461E-05</v>
+      </c>
+      <c r="T33">
+        <v>1.12874973539594E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>0.140579</v>
+      </c>
+      <c r="H34">
+        <v>0.281158</v>
+      </c>
+      <c r="I34">
+        <v>0.005016646710384032</v>
+      </c>
+      <c r="J34">
+        <v>0.004098401936938708</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>8.476260000000002</v>
+      </c>
+      <c r="N34">
+        <v>25.42878</v>
+      </c>
+      <c r="O34">
+        <v>0.05109952447541453</v>
+      </c>
+      <c r="P34">
+        <v>0.06495414845995381</v>
+      </c>
+      <c r="Q34">
+        <v>1.19158415454</v>
+      </c>
+      <c r="R34">
+        <v>7.149504927240002</v>
+      </c>
+      <c r="S34">
+        <v>0.0002563482613617767</v>
+      </c>
+      <c r="T34">
+        <v>0.0002662082078604791</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+      <c r="G35">
+        <v>0.140579</v>
+      </c>
+      <c r="H35">
+        <v>0.281158</v>
+      </c>
+      <c r="I35">
+        <v>0.005016646710384032</v>
+      </c>
+      <c r="J35">
+        <v>0.004098401936938708</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>4.704215666666666</v>
+      </c>
+      <c r="N35">
+        <v>14.112647</v>
+      </c>
+      <c r="O35">
+        <v>0.02835958118279309</v>
+      </c>
+      <c r="P35">
+        <v>0.03604871993076041</v>
+      </c>
+      <c r="Q35">
+        <v>0.6613139342043334</v>
+      </c>
+      <c r="R35">
+        <v>3.967883605226</v>
+      </c>
+      <c r="S35">
+        <v>0.0001422699996485279</v>
+      </c>
+      <c r="T35">
+        <v>0.0001477421435883894</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>0.140579</v>
+      </c>
+      <c r="H36">
+        <v>0.281158</v>
+      </c>
+      <c r="I36">
+        <v>0.005016646710384032</v>
+      </c>
+      <c r="J36">
+        <v>0.004098401936938708</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>46.193335</v>
+      </c>
+      <c r="N36">
+        <v>138.580005</v>
+      </c>
+      <c r="O36">
+        <v>0.2784786512487256</v>
+      </c>
+      <c r="P36">
+        <v>0.3539826219878083</v>
+      </c>
+      <c r="Q36">
+        <v>6.493812840965</v>
+      </c>
+      <c r="R36">
+        <v>38.96287704579</v>
+      </c>
+      <c r="S36">
+        <v>0.001397029009699101</v>
+      </c>
+      <c r="T36">
+        <v>0.001450763063597476</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+      <c r="G37">
+        <v>0.140579</v>
+      </c>
+      <c r="H37">
+        <v>0.281158</v>
+      </c>
+      <c r="I37">
+        <v>0.005016646710384032</v>
+      </c>
+      <c r="J37">
+        <v>0.004098401936938708</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>72.8745145</v>
+      </c>
+      <c r="N37">
+        <v>145.749029</v>
+      </c>
+      <c r="O37">
+        <v>0.4393273728421144</v>
+      </c>
+      <c r="P37">
+        <v>0.3722948591147555</v>
+      </c>
+      <c r="Q37">
+        <v>10.2446263738955</v>
+      </c>
+      <c r="R37">
+        <v>40.97850549558201</v>
+      </c>
+      <c r="S37">
+        <v>0.002203950219750052</v>
+      </c>
+      <c r="T37">
+        <v>0.001525813971708237</v>
       </c>
     </row>
   </sheetData>
